--- a/5_Integración con datos de patógenos y enfermedades/Genes_multiple_categories_with_FC_sorted_all.xlsx
+++ b/5_Integración con datos de patógenos y enfermedades/Genes_multiple_categories_with_FC_sorted_all.xlsx
@@ -5,24 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a28782ebd37fa75/Documentos/Tesis de Grado/Protocolo/5_Integración con datos de patógenos y enfermedades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Protocolo_Reposicionamiento_Probioticos\5_Integración con datos de patógenos y enfermedades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_700DC93B9753C80E62355476585DCE3A87472C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5EF6BCD-F73B-45C8-B2D9-12FAE0322E4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E1FE3-209E-4D5D-8AD6-3F6BA699CFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacillus subtilis CW14" sheetId="1" r:id="rId1"/>
-    <sheet name="Fusobacterium Nucleatum" sheetId="2" r:id="rId2"/>
-    <sheet name="Propionibacterium freudenreichi" sheetId="3" r:id="rId3"/>
+    <sheet name="Propionibacterium freudenreichi" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="125">
   <si>
     <t>Gene</t>
   </si>
@@ -328,54 +327,6 @@
   </si>
   <si>
     <t>Associated with Dysbiosis, Neurological Diseases</t>
-  </si>
-  <si>
-    <t>SNAI2</t>
-  </si>
-  <si>
-    <t>LAMA3</t>
-  </si>
-  <si>
-    <t>CCND1</t>
-  </si>
-  <si>
-    <t>COL5A2</t>
-  </si>
-  <si>
-    <t>AMOTL2</t>
-  </si>
-  <si>
-    <t>KITLG</t>
-  </si>
-  <si>
-    <t>PLSCR4</t>
-  </si>
-  <si>
-    <t>S100A14</t>
-  </si>
-  <si>
-    <t>ITGA2</t>
-  </si>
-  <si>
-    <t>RGL1</t>
-  </si>
-  <si>
-    <t>SMAD6</t>
-  </si>
-  <si>
-    <t>PRSS23</t>
-  </si>
-  <si>
-    <t>IL22RA1</t>
-  </si>
-  <si>
-    <t>COL12A1</t>
-  </si>
-  <si>
-    <t>EHF</t>
-  </si>
-  <si>
-    <t>LIFR</t>
   </si>
   <si>
     <t>CORO1A</t>
@@ -520,10 +471,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,9 +760,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98.42578125" bestFit="1" customWidth="1"/>
@@ -2139,359 +2088,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12C9087-51F3-4554-8FB5-5B25844BE35E}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2">
-        <v>-1.96078766346563</v>
-      </c>
-      <c r="D2">
-        <v>3.89274451850007</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3">
-        <v>-1.65834882045538</v>
-      </c>
-      <c r="D3">
-        <v>3.1565504742842698</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4">
-        <v>-1.33548508913701</v>
-      </c>
-      <c r="D4">
-        <v>2.5236032067421901</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5">
-        <v>-1.3121021873860901</v>
-      </c>
-      <c r="D5">
-        <v>2.4830308521300699</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>1.3039111319156</v>
-      </c>
-      <c r="D6">
-        <v>2.4689731236615602</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>-1.29121901595926</v>
-      </c>
-      <c r="D7">
-        <v>2.4473475866221799</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <v>1.2513455322634499</v>
-      </c>
-      <c r="D8">
-        <v>2.3806334972846401</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>-1.24894158036734</v>
-      </c>
-      <c r="D9">
-        <v>2.3766699687088799</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10">
-        <v>1.23908478123259</v>
-      </c>
-      <c r="D10">
-        <v>2.3604873986977202</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11">
-        <v>-1.2269618517304799</v>
-      </c>
-      <c r="D11">
-        <v>2.3407353875502901</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12">
-        <v>-1.21406657482405</v>
-      </c>
-      <c r="D12">
-        <v>2.3199063612914399</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13">
-        <v>-1.2019750818433199</v>
-      </c>
-      <c r="D13">
-        <v>2.3005440514761202</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14">
-        <v>-1.19546340172509</v>
-      </c>
-      <c r="D14">
-        <v>2.2901838229345599</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15">
-        <v>-1.1859765608555399</v>
-      </c>
-      <c r="D15">
-        <v>2.2751734912086201</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>-1.1355012676621301</v>
-      </c>
-      <c r="D16">
-        <v>2.1969488298290201</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>1.1162952648222799</v>
-      </c>
-      <c r="D17">
-        <v>2.1678955740884902</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18">
-        <v>1.1023787416592301</v>
-      </c>
-      <c r="D18">
-        <v>2.1470841593124299</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>-1.0449542507578999</v>
-      </c>
-      <c r="D19">
-        <v>2.0633009283158601</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCCD570-2399-4E47-A543-508E886F06C3}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
@@ -2519,10 +2123,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>3.7938727174091298</v>
@@ -2536,7 +2140,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -2553,7 +2157,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -2570,10 +2174,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>1.80553517156212</v>
@@ -2587,7 +2191,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -2604,10 +2208,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C7">
         <v>1.52268144424201</v>
@@ -2621,7 +2225,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -2638,7 +2242,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -2655,7 +2259,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>101</v>
@@ -2672,10 +2276,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C11">
         <v>1.3750731375488101</v>
@@ -2689,10 +2293,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>1.3638042524496401</v>
@@ -2706,10 +2310,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>1.3084793468563101</v>
@@ -2723,7 +2327,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -2740,10 +2344,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C15">
         <v>1.2190798425784299</v>
@@ -2757,7 +2361,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
@@ -2774,10 +2378,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C17">
         <v>1.1411576428805701</v>
@@ -2791,7 +2395,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -2808,7 +2412,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -2825,10 +2429,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C20">
         <v>1.01875784037156</v>
